--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="H2">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="I2">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="J2">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7871260000000001</v>
+        <v>0.2590113333333333</v>
       </c>
       <c r="N2">
-        <v>2.361378</v>
+        <v>0.777034</v>
       </c>
       <c r="O2">
-        <v>0.002226851099221957</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="P2">
-        <v>0.002226851099221956</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="Q2">
-        <v>0.6095797604373334</v>
+        <v>0.2741522725088889</v>
       </c>
       <c r="R2">
-        <v>5.486217843936001</v>
+        <v>2.46737045258</v>
       </c>
       <c r="S2">
-        <v>4.446918253257534E-06</v>
+        <v>1.639190323876903E-06</v>
       </c>
       <c r="T2">
-        <v>4.446918253257533E-06</v>
+        <v>1.639190323876903E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="H3">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="I3">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="J3">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2407733333333334</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="N3">
-        <v>0.7223200000000001</v>
+        <v>0.72232</v>
       </c>
       <c r="O3">
-        <v>0.0006811696754987994</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="P3">
-        <v>0.0006811696754987993</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="Q3">
-        <v>0.1864638582044445</v>
+        <v>0.2548481398222222</v>
       </c>
       <c r="R3">
-        <v>1.67817472384</v>
+        <v>2.2936332584</v>
       </c>
       <c r="S3">
-        <v>1.360264215510173E-06</v>
+        <v>1.523768528459198E-06</v>
       </c>
       <c r="T3">
-        <v>1.360264215510173E-06</v>
+        <v>1.523768528459198E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="H4">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="I4">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="J4">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.2174176666667</v>
+        <v>115.7328183333333</v>
       </c>
       <c r="N4">
-        <v>558.6522530000001</v>
+        <v>347.198455</v>
       </c>
       <c r="O4">
-        <v>0.5268260243281139</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="P4">
-        <v>0.5268260243281138</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="Q4">
-        <v>144.2137203579929</v>
+        <v>122.4981731170389</v>
       </c>
       <c r="R4">
-        <v>1297.923483221936</v>
+        <v>1102.48355805335</v>
       </c>
       <c r="S4">
-        <v>0.001052047110242048</v>
+        <v>0.0007324317184331836</v>
       </c>
       <c r="T4">
-        <v>0.001052047110242048</v>
+        <v>0.0007324317184331837</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="H5">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="I5">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="J5">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.377292</v>
+        <v>0.256113</v>
       </c>
       <c r="N5">
-        <v>1.131876</v>
+        <v>0.768339</v>
       </c>
       <c r="O5">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="P5">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="Q5">
-        <v>0.2921890103679999</v>
+        <v>0.27108451227</v>
       </c>
       <c r="R5">
-        <v>2.629701093312</v>
+        <v>2.43976061043</v>
       </c>
       <c r="S5">
-        <v>2.131535080289612E-06</v>
+        <v>1.62084780621859E-06</v>
       </c>
       <c r="T5">
-        <v>2.131535080289612E-06</v>
+        <v>1.62084780621859E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7744373333333333</v>
+        <v>1.058456666666667</v>
       </c>
       <c r="H6">
-        <v>2.323312</v>
+        <v>3.17537</v>
       </c>
       <c r="I6">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="J6">
-        <v>0.001996953570362765</v>
+        <v>0.00154290138396175</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>165.847814</v>
+        <v>127.3078333333333</v>
       </c>
       <c r="N6">
-        <v>497.543442</v>
+        <v>381.9235</v>
       </c>
       <c r="O6">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="P6">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="Q6">
-        <v>128.4387388133227</v>
+        <v>134.7498249105556</v>
       </c>
       <c r="R6">
-        <v>1155.948649319904</v>
+        <v>1212.748424195</v>
       </c>
       <c r="S6">
-        <v>0.0009369677425716598</v>
+        <v>0.0008056858588700115</v>
       </c>
       <c r="T6">
-        <v>0.0009369677425716598</v>
+        <v>0.0008056858588700116</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="I7">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="J7">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7871260000000001</v>
+        <v>0.2590113333333333</v>
       </c>
       <c r="N7">
-        <v>2.361378</v>
+        <v>0.777034</v>
       </c>
       <c r="O7">
-        <v>0.002226851099221957</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="P7">
-        <v>0.002226851099221956</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="Q7">
-        <v>0.2254347230273334</v>
+        <v>0.07418145022644444</v>
       </c>
       <c r="R7">
-        <v>2.028912507246</v>
+        <v>0.6676330520380001</v>
       </c>
       <c r="S7">
-        <v>1.644558841699542E-06</v>
+        <v>4.435400600897857E-07</v>
       </c>
       <c r="T7">
-        <v>1.644558841699542E-06</v>
+        <v>4.435400600897856E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="I8">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="J8">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2407733333333334</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7223200000000001</v>
+        <v>0.72232</v>
       </c>
       <c r="O8">
-        <v>0.0006811696754987994</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="P8">
-        <v>0.0006811696754987993</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="Q8">
-        <v>0.06895804447111113</v>
+        <v>0.06895804447111112</v>
       </c>
       <c r="R8">
-        <v>0.6206224002400001</v>
+        <v>0.62062240024</v>
       </c>
       <c r="S8">
-        <v>5.030527694153217E-07</v>
+        <v>4.12308671440444E-07</v>
       </c>
       <c r="T8">
-        <v>5.030527694153214E-07</v>
+        <v>4.12308671440444E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="I9">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="J9">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>186.2174176666667</v>
+        <v>115.7328183333333</v>
       </c>
       <c r="N9">
-        <v>558.6522530000001</v>
+        <v>347.198455</v>
       </c>
       <c r="O9">
-        <v>0.5268260243281139</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="P9">
-        <v>0.5268260243281138</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="Q9">
-        <v>53.33310292704124</v>
+        <v>33.14614921390945</v>
       </c>
       <c r="R9">
-        <v>479.9979263433711</v>
+        <v>298.315342925185</v>
       </c>
       <c r="S9">
-        <v>0.0003890679518935637</v>
+        <v>0.0001981849231742507</v>
       </c>
       <c r="T9">
-        <v>0.0003890679518935636</v>
+        <v>0.0001981849231742507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="I10">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="J10">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.377292</v>
+        <v>0.256113</v>
       </c>
       <c r="N10">
-        <v>1.131876</v>
+        <v>0.768339</v>
       </c>
       <c r="O10">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="P10">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="Q10">
-        <v>0.108057309148</v>
+        <v>0.073351360797</v>
       </c>
       <c r="R10">
-        <v>0.972515782332</v>
+        <v>0.660162247173</v>
       </c>
       <c r="S10">
-        <v>7.88284079680386E-07</v>
+        <v>4.385768527880708E-07</v>
       </c>
       <c r="T10">
-        <v>7.882840796803858E-07</v>
+        <v>4.385768527880708E-07</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.8592070000000001</v>
       </c>
       <c r="I11">
-        <v>0.0007385131598040558</v>
+        <v>0.000417485732185422</v>
       </c>
       <c r="J11">
-        <v>0.0007385131598040556</v>
+        <v>0.0004174857321854219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>165.847814</v>
+        <v>127.3078333333333</v>
       </c>
       <c r="N11">
-        <v>497.543442</v>
+        <v>381.9235</v>
       </c>
       <c r="O11">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="P11">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="Q11">
-        <v>47.49920090783267</v>
+        <v>36.46126051827778</v>
       </c>
       <c r="R11">
-        <v>427.492808170494</v>
+        <v>328.1513446645</v>
       </c>
       <c r="S11">
-        <v>0.0003465093122196968</v>
+        <v>0.000218006383426853</v>
       </c>
       <c r="T11">
-        <v>0.0003465093122196967</v>
+        <v>0.0002180063834268529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="H12">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="I12">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="J12">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7871260000000001</v>
+        <v>0.2590113333333333</v>
       </c>
       <c r="N12">
-        <v>2.361378</v>
+        <v>0.777034</v>
       </c>
       <c r="O12">
-        <v>0.002226851099221957</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="P12">
-        <v>0.002226851099221956</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="Q12">
-        <v>100.2676768726567</v>
+        <v>102.5211169855611</v>
       </c>
       <c r="R12">
-        <v>902.40909185391</v>
+        <v>922.69005287005</v>
       </c>
       <c r="S12">
-        <v>0.0007314582790230014</v>
+        <v>0.0006129864305623622</v>
       </c>
       <c r="T12">
-        <v>0.000731458279023001</v>
+        <v>0.0006129864305623622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="H13">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="I13">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="J13">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2407733333333334</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="N13">
-        <v>0.7223200000000001</v>
+        <v>0.72232</v>
       </c>
       <c r="O13">
-        <v>0.0006811696754987994</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="P13">
-        <v>0.0006811696754987993</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="Q13">
-        <v>30.67079830448889</v>
+        <v>95.30220456377778</v>
       </c>
       <c r="R13">
-        <v>276.0371847404001</v>
+        <v>857.719841074</v>
       </c>
       <c r="S13">
-        <v>0.000223745179341848</v>
+        <v>0.0005698236609000449</v>
       </c>
       <c r="T13">
-        <v>0.0002237451793418479</v>
+        <v>0.0005698236609000449</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="H14">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="I14">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="J14">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>186.2174176666667</v>
+        <v>115.7328183333333</v>
       </c>
       <c r="N14">
-        <v>558.6522530000001</v>
+        <v>347.198455</v>
       </c>
       <c r="O14">
-        <v>0.5268260243281139</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="P14">
-        <v>0.5268260243281138</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="Q14">
-        <v>23721.2185376444</v>
+        <v>45809.02949196698</v>
       </c>
       <c r="R14">
-        <v>213490.9668387996</v>
+        <v>412281.2654277029</v>
       </c>
       <c r="S14">
-        <v>0.1730476084522268</v>
+        <v>0.2738978495499771</v>
       </c>
       <c r="T14">
-        <v>0.1730476084522267</v>
+        <v>0.2738978495499771</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="H15">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="I15">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="J15">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.377292</v>
+        <v>0.256113</v>
       </c>
       <c r="N15">
-        <v>1.131876</v>
+        <v>0.768339</v>
       </c>
       <c r="O15">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="P15">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="Q15">
-        <v>48.06116472157999</v>
+        <v>101.373907066575</v>
       </c>
       <c r="R15">
-        <v>432.55048249422</v>
+        <v>912.3651635991749</v>
       </c>
       <c r="S15">
-        <v>0.000350608869493761</v>
+        <v>0.0006061271206560521</v>
       </c>
       <c r="T15">
-        <v>0.0003506088694937609</v>
+        <v>0.0006061271206560521</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>127.3845316666667</v>
+        <v>395.8171083333334</v>
       </c>
       <c r="H16">
-        <v>382.153595</v>
+        <v>1187.451325</v>
       </c>
       <c r="I16">
-        <v>0.3284720200998472</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="J16">
-        <v>0.3284720200998471</v>
+        <v>0.5769785230476177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>165.847814</v>
+        <v>127.3078333333333</v>
       </c>
       <c r="N16">
-        <v>497.543442</v>
+        <v>381.9235</v>
       </c>
       <c r="O16">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="P16">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="Q16">
-        <v>21126.44611433044</v>
+        <v>50390.61845818195</v>
       </c>
       <c r="R16">
-        <v>190138.015028974</v>
+        <v>453515.5661236375</v>
       </c>
       <c r="S16">
-        <v>0.1541185993197618</v>
+        <v>0.3012917362855221</v>
       </c>
       <c r="T16">
-        <v>0.1541185993197617</v>
+        <v>0.3012917362855221</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="H17">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="I17">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="J17">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7871260000000001</v>
+        <v>0.2590113333333333</v>
       </c>
       <c r="N17">
-        <v>2.361378</v>
+        <v>0.777034</v>
       </c>
       <c r="O17">
-        <v>0.002226851099221957</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="P17">
-        <v>0.002226851099221956</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="Q17">
-        <v>0.1402947144866667</v>
+        <v>0.04504906417266666</v>
       </c>
       <c r="R17">
-        <v>1.26265243038</v>
+        <v>0.405441577554</v>
       </c>
       <c r="S17">
-        <v>1.02345774446107E-06</v>
+        <v>2.69353922970493E-07</v>
       </c>
       <c r="T17">
-        <v>1.023457744461069E-06</v>
+        <v>2.69353922970493E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="H18">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="I18">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="J18">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.2407733333333334</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="N18">
-        <v>0.7223200000000001</v>
+        <v>0.72232</v>
       </c>
       <c r="O18">
-        <v>0.0006811696754987994</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="P18">
-        <v>0.0006811696754987993</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="Q18">
-        <v>0.04291463635555556</v>
+        <v>0.04187698354666666</v>
       </c>
       <c r="R18">
-        <v>0.3862317272</v>
+        <v>0.3768928519199999</v>
       </c>
       <c r="S18">
-        <v>3.130646588471307E-07</v>
+        <v>2.503876608231383E-07</v>
       </c>
       <c r="T18">
-        <v>3.130646588471306E-07</v>
+        <v>2.503876608231384E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="H19">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="I19">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="J19">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>186.2174176666667</v>
+        <v>115.7328183333333</v>
       </c>
       <c r="N19">
-        <v>558.6522530000001</v>
+        <v>347.198455</v>
       </c>
       <c r="O19">
-        <v>0.5268260243281139</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="P19">
-        <v>0.5268260243281138</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="Q19">
-        <v>33.19077180018112</v>
+        <v>20.12906189426166</v>
       </c>
       <c r="R19">
-        <v>298.71694620163</v>
+        <v>181.161557048355</v>
       </c>
       <c r="S19">
-        <v>0.000242128526137482</v>
+        <v>0.0001203541491151535</v>
       </c>
       <c r="T19">
-        <v>0.0002421285261374819</v>
+        <v>0.0001203541491151535</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="H20">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="I20">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="J20">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.377292</v>
+        <v>0.256113</v>
       </c>
       <c r="N20">
-        <v>1.131876</v>
+        <v>0.768339</v>
       </c>
       <c r="O20">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="P20">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="Q20">
-        <v>0.06724726843999999</v>
+        <v>0.04454496575099999</v>
       </c>
       <c r="R20">
-        <v>0.60522541596</v>
+        <v>0.400904691759</v>
       </c>
       <c r="S20">
-        <v>4.905725631261141E-07</v>
+        <v>2.66339856198346E-07</v>
       </c>
       <c r="T20">
-        <v>4.905725631261141E-07</v>
+        <v>2.663398561983461E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1782366666666667</v>
+        <v>0.173927</v>
       </c>
       <c r="H21">
-        <v>0.53471</v>
+        <v>0.5217809999999999</v>
       </c>
       <c r="I21">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556132</v>
       </c>
       <c r="J21">
-        <v>0.0004595986434919951</v>
+        <v>0.0002535315969556133</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>165.847814</v>
+        <v>127.3078333333333</v>
       </c>
       <c r="N21">
-        <v>497.543442</v>
+        <v>381.9235</v>
       </c>
       <c r="O21">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="P21">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="Q21">
-        <v>29.56016154131333</v>
+        <v>22.14226952816666</v>
       </c>
       <c r="R21">
-        <v>266.04145387182</v>
+        <v>199.2804257535</v>
       </c>
       <c r="S21">
-        <v>0.0002156430223880789</v>
+        <v>0.0001323913664004678</v>
       </c>
       <c r="T21">
-        <v>0.0002156430223880788</v>
+        <v>0.0001323913664004678</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="H22">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="I22">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="J22">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7871260000000001</v>
+        <v>0.2590113333333333</v>
       </c>
       <c r="N22">
-        <v>2.361378</v>
+        <v>0.777034</v>
       </c>
       <c r="O22">
-        <v>0.002226851099221957</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="P22">
-        <v>0.002226851099221956</v>
+        <v>0.001062407708565216</v>
       </c>
       <c r="Q22">
-        <v>204.0118628574007</v>
+        <v>74.77169285051022</v>
       </c>
       <c r="R22">
-        <v>1836.106765716606</v>
+        <v>672.945235654592</v>
       </c>
       <c r="S22">
-        <v>0.001488277885359537</v>
+        <v>0.0004470691936959167</v>
       </c>
       <c r="T22">
-        <v>0.001488277885359537</v>
+        <v>0.0004470691936959167</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="H23">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="I23">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="J23">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2407733333333334</v>
+        <v>0.2407733333333333</v>
       </c>
       <c r="N23">
-        <v>0.7223200000000001</v>
+        <v>0.72232</v>
       </c>
       <c r="O23">
-        <v>0.0006811696754987994</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="P23">
-        <v>0.0006811696754987993</v>
+        <v>0.0009875994307209555</v>
       </c>
       <c r="Q23">
-        <v>62.40502315984889</v>
+        <v>69.50672580579555</v>
       </c>
       <c r="R23">
-        <v>561.64520843864</v>
+        <v>625.56053225216</v>
       </c>
       <c r="S23">
-        <v>0.0004552481145131788</v>
+        <v>0.0004155893049601878</v>
       </c>
       <c r="T23">
-        <v>0.0004552481145131787</v>
+        <v>0.0004155893049601878</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="H24">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="I24">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="J24">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>186.2174176666667</v>
+        <v>115.7328183333333</v>
       </c>
       <c r="N24">
-        <v>558.6522530000001</v>
+        <v>347.198455</v>
       </c>
       <c r="O24">
-        <v>0.5268260243281139</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="P24">
-        <v>0.5268260243281138</v>
+        <v>0.4747106497192314</v>
       </c>
       <c r="Q24">
-        <v>48264.90584057864</v>
+        <v>33409.88455515679</v>
       </c>
       <c r="R24">
-        <v>434384.1525652078</v>
+        <v>300688.960996411</v>
       </c>
       <c r="S24">
-        <v>0.352095172287614</v>
+        <v>0.1997618293785317</v>
       </c>
       <c r="T24">
-        <v>0.3520951722876139</v>
+        <v>0.1997618293785317</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="H25">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="I25">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="J25">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.377292</v>
+        <v>0.256113</v>
       </c>
       <c r="N25">
-        <v>1.131876</v>
+        <v>0.768339</v>
       </c>
       <c r="O25">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="P25">
-        <v>0.001067393409603609</v>
+        <v>0.001050519380607914</v>
       </c>
       <c r="Q25">
-        <v>97.78871967282798</v>
+        <v>73.934998614048</v>
       </c>
       <c r="R25">
-        <v>880.0984770554519</v>
+        <v>665.414987526432</v>
       </c>
       <c r="S25">
-        <v>0.0007133741483867518</v>
+        <v>0.0004420664954366565</v>
       </c>
       <c r="T25">
-        <v>0.0007133741483867518</v>
+        <v>0.0004420664954366565</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>259.1857756666666</v>
+        <v>288.6811626666667</v>
       </c>
       <c r="H26">
-        <v>777.557327</v>
+        <v>866.043488</v>
       </c>
       <c r="I26">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="J26">
-        <v>0.668332914526494</v>
+        <v>0.4208075582392796</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>165.847814</v>
+        <v>127.3078333333333</v>
       </c>
       <c r="N26">
-        <v>497.543442</v>
+        <v>381.9235</v>
       </c>
       <c r="O26">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="P26">
-        <v>0.4691985614875618</v>
+        <v>0.5221888237608745</v>
       </c>
       <c r="Q26">
-        <v>42985.39431421106</v>
+        <v>36751.37334324089</v>
       </c>
       <c r="R26">
-        <v>386868.5488278995</v>
+        <v>330762.360089168</v>
       </c>
       <c r="S26">
-        <v>0.3135808420906206</v>
+        <v>0.2197410038666551</v>
       </c>
       <c r="T26">
-        <v>0.3135808420906206</v>
+        <v>0.2197410038666551</v>
       </c>
     </row>
   </sheetData>
